--- a/working/KreutzPFAS/dataguide-AK-hep.xlsx
+++ b/working/KreutzPFAS/dataguide-AK-hep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\KreutzPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219F3168-47FF-4C94-A716-0D5E11B8EB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C16A52-4B8F-45C6-B0AF-736F6358EAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FBD20694-86E7-4EA8-9E3F-9E73DC7D54DE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="86">
   <si>
     <t>File</t>
   </si>
@@ -274,6 +274,24 @@
   </si>
   <si>
     <t>090721</t>
+  </si>
+  <si>
+    <t>Hep4_971_941_041122.xlsx</t>
+  </si>
+  <si>
+    <t>All Hep04 data</t>
+  </si>
+  <si>
+    <t>041122</t>
+  </si>
+  <si>
+    <t>m4:2 FTOH</t>
+  </si>
+  <si>
+    <t>Area...17</t>
+  </si>
+  <si>
+    <t>CC Concentration (nM)</t>
   </si>
 </sst>
 </file>
@@ -638,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EAA0A0-5807-4BE5-8864-D0C317F02936}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,6 +1931,44 @@
         <v>43</v>
       </c>
     </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="2">
+        <v>971</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
